--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ngf-Sort1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ngf-Sort1.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.2143436666666667</v>
+        <v>0.1930666666666666</v>
       </c>
       <c r="H2">
-        <v>0.643031</v>
+        <v>0.5791999999999999</v>
       </c>
       <c r="I2">
-        <v>0.02290233455071953</v>
+        <v>0.01292026122037801</v>
       </c>
       <c r="J2">
-        <v>0.02290233455071953</v>
+        <v>0.01292026122037801</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.358929333333333</v>
+        <v>0.4652636666666667</v>
       </c>
       <c r="N2">
-        <v>13.076788</v>
+        <v>1.395791</v>
       </c>
       <c r="O2">
-        <v>0.315486934607403</v>
+        <v>0.02604271297411062</v>
       </c>
       <c r="P2">
-        <v>0.315486934607403</v>
+        <v>0.02604271297411062</v>
       </c>
       <c r="Q2">
-        <v>0.9343088960475556</v>
+        <v>0.08982690524444444</v>
       </c>
       <c r="R2">
-        <v>8.408780064428001</v>
+        <v>0.8084421472</v>
       </c>
       <c r="S2">
-        <v>0.007225387322759719</v>
+        <v>0.0003364786545128367</v>
       </c>
       <c r="T2">
-        <v>0.007225387322759719</v>
+        <v>0.0003364786545128366</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.2143436666666667</v>
+        <v>0.1930666666666666</v>
       </c>
       <c r="H3">
-        <v>0.643031</v>
+        <v>0.5791999999999999</v>
       </c>
       <c r="I3">
-        <v>0.02290233455071953</v>
+        <v>0.01292026122037801</v>
       </c>
       <c r="J3">
-        <v>0.02290233455071953</v>
+        <v>0.01292026122037801</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>5.344147</v>
       </c>
       <c r="O3">
-        <v>0.1289313977653648</v>
+        <v>0.09971126509087273</v>
       </c>
       <c r="P3">
-        <v>0.1289313977653648</v>
+        <v>0.09971126509087272</v>
       </c>
       <c r="Q3">
-        <v>0.381828021061889</v>
+        <v>0.3439255491555555</v>
       </c>
       <c r="R3">
-        <v>3.436452189557</v>
+        <v>3.095329942399999</v>
       </c>
       <c r="S3">
-        <v>0.002952830005714277</v>
+        <v>0.001288295591588434</v>
       </c>
       <c r="T3">
-        <v>0.002952830005714276</v>
+        <v>0.001288295591588434</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.2143436666666667</v>
+        <v>0.1930666666666666</v>
       </c>
       <c r="H4">
-        <v>0.643031</v>
+        <v>0.5791999999999999</v>
       </c>
       <c r="I4">
-        <v>0.02290233455071953</v>
+        <v>0.01292026122037801</v>
       </c>
       <c r="J4">
-        <v>0.02290233455071953</v>
+        <v>0.01292026122037801</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.676201333333332</v>
+        <v>15.618761</v>
       </c>
       <c r="N4">
-        <v>23.028604</v>
+        <v>46.856283</v>
       </c>
       <c r="O4">
-        <v>0.5555816676272323</v>
+        <v>0.8742460219350168</v>
       </c>
       <c r="P4">
-        <v>0.5555816676272322</v>
+        <v>0.8742460219350167</v>
       </c>
       <c r="Q4">
-        <v>1.645345139858222</v>
+        <v>3.015462123733333</v>
       </c>
       <c r="R4">
-        <v>14.808106258724</v>
+        <v>27.13915911359999</v>
       </c>
       <c r="S4">
-        <v>0.01272411722224553</v>
+        <v>0.01129548697427674</v>
       </c>
       <c r="T4">
-        <v>0.01272411722224553</v>
+        <v>0.01129548697427674</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1.998447</v>
       </c>
       <c r="I5">
-        <v>0.07117713108058832</v>
+        <v>0.04457951877603724</v>
       </c>
       <c r="J5">
-        <v>0.07117713108058832</v>
+        <v>0.04457951877603725</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.358929333333333</v>
+        <v>0.4652636666666667</v>
       </c>
       <c r="N5">
-        <v>13.076788</v>
+        <v>1.395791</v>
       </c>
       <c r="O5">
-        <v>0.315486934607403</v>
+        <v>0.02604271297411062</v>
       </c>
       <c r="P5">
-        <v>0.315486934607403</v>
+        <v>0.02604271297411062</v>
       </c>
       <c r="Q5">
-        <v>2.903696416470666</v>
+        <v>0.3099349262863333</v>
       </c>
       <c r="R5">
-        <v>26.133267748236</v>
+        <v>2.789414336577</v>
       </c>
       <c r="S5">
-        <v>0.02245545489876412</v>
+        <v>0.001160971612008313</v>
       </c>
       <c r="T5">
-        <v>0.02245545489876412</v>
+        <v>0.001160971612008313</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1.998447</v>
       </c>
       <c r="I6">
-        <v>0.07117713108058832</v>
+        <v>0.04457951877603724</v>
       </c>
       <c r="J6">
-        <v>0.07117713108058832</v>
+        <v>0.04457951877603725</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>5.344147</v>
       </c>
       <c r="O6">
-        <v>0.1289313977653648</v>
+        <v>0.09971126509087273</v>
       </c>
       <c r="P6">
-        <v>0.1289313977653648</v>
+        <v>0.09971126509087272</v>
       </c>
       <c r="Q6">
         <v>1.186666059967667</v>
@@ -818,10 +818,10 @@
         <v>10.679994539709</v>
       </c>
       <c r="S6">
-        <v>0.009176966999148842</v>
+        <v>0.004445080214300987</v>
       </c>
       <c r="T6">
-        <v>0.00917696699914884</v>
+        <v>0.004445080214300988</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1.998447</v>
       </c>
       <c r="I7">
-        <v>0.07117713108058832</v>
+        <v>0.04457951877603724</v>
       </c>
       <c r="J7">
-        <v>0.07117713108058832</v>
+        <v>0.04457951877603725</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.676201333333332</v>
+        <v>15.618761</v>
       </c>
       <c r="N7">
-        <v>23.028604</v>
+        <v>46.856283</v>
       </c>
       <c r="O7">
-        <v>0.5555816676272323</v>
+        <v>0.8742460219350168</v>
       </c>
       <c r="P7">
-        <v>0.5555816676272322</v>
+        <v>0.8742460219350167</v>
       </c>
       <c r="Q7">
-        <v>5.113493841998666</v>
+        <v>10.404422021389</v>
       </c>
       <c r="R7">
-        <v>46.021444577988</v>
+        <v>93.639798192501</v>
       </c>
       <c r="S7">
-        <v>0.03954470918267537</v>
+        <v>0.03897346694972795</v>
       </c>
       <c r="T7">
-        <v>0.03954470918267535</v>
+        <v>0.03897346694972795</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.478538666666667</v>
+        <v>14.08372266666667</v>
       </c>
       <c r="H8">
-        <v>25.435616</v>
+        <v>42.251168</v>
       </c>
       <c r="I8">
-        <v>0.9059205343686921</v>
+        <v>0.9425002200035847</v>
       </c>
       <c r="J8">
-        <v>0.9059205343686921</v>
+        <v>0.9425002200035848</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.358929333333333</v>
+        <v>0.4652636666666667</v>
       </c>
       <c r="N8">
-        <v>13.076788</v>
+        <v>1.395791</v>
       </c>
       <c r="O8">
-        <v>0.315486934607403</v>
+        <v>0.02604271297411062</v>
       </c>
       <c r="P8">
-        <v>0.315486934607403</v>
+        <v>0.02604271297411062</v>
       </c>
       <c r="Q8">
-        <v>36.95735089793423</v>
+        <v>6.552644448209778</v>
       </c>
       <c r="R8">
-        <v>332.6161580814081</v>
+        <v>58.973800033888</v>
       </c>
       <c r="S8">
-        <v>0.2858060923858792</v>
+        <v>0.02454526270758947</v>
       </c>
       <c r="T8">
-        <v>0.2858060923858792</v>
+        <v>0.02454526270758947</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.478538666666667</v>
+        <v>14.08372266666667</v>
       </c>
       <c r="H9">
-        <v>25.435616</v>
+        <v>42.251168</v>
       </c>
       <c r="I9">
-        <v>0.9059205343686921</v>
+        <v>0.9425002200035847</v>
       </c>
       <c r="J9">
-        <v>0.9059205343686921</v>
+        <v>0.9425002200035848</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>5.344147</v>
       </c>
       <c r="O9">
-        <v>0.1289313977653648</v>
+        <v>0.09971126509087273</v>
       </c>
       <c r="P9">
-        <v>0.1289313977653648</v>
+        <v>0.09971126509087272</v>
       </c>
       <c r="Q9">
-        <v>15.10351899328356</v>
+        <v>25.08849474596622</v>
       </c>
       <c r="R9">
-        <v>135.931670939552</v>
+        <v>225.796452713696</v>
       </c>
       <c r="S9">
-        <v>0.1168016007605017</v>
+        <v>0.09397788928498331</v>
       </c>
       <c r="T9">
-        <v>0.1168016007605017</v>
+        <v>0.09397788928498331</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.478538666666667</v>
+        <v>14.08372266666667</v>
       </c>
       <c r="H10">
-        <v>25.435616</v>
+        <v>42.251168</v>
       </c>
       <c r="I10">
-        <v>0.9059205343686921</v>
+        <v>0.9425002200035847</v>
       </c>
       <c r="J10">
-        <v>0.9059205343686921</v>
+        <v>0.9425002200035848</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.676201333333332</v>
+        <v>15.618761</v>
       </c>
       <c r="N10">
-        <v>23.028604</v>
+        <v>46.856283</v>
       </c>
       <c r="O10">
-        <v>0.5555816676272323</v>
+        <v>0.8742460219350168</v>
       </c>
       <c r="P10">
-        <v>0.5555816676272322</v>
+        <v>0.8742460219350167</v>
       </c>
       <c r="Q10">
-        <v>65.08296981778489</v>
+        <v>219.9702983209493</v>
       </c>
       <c r="R10">
-        <v>585.746728360064</v>
+        <v>1979.732684888544</v>
       </c>
       <c r="S10">
-        <v>0.5033128412223113</v>
+        <v>0.823977068011012</v>
       </c>
       <c r="T10">
-        <v>0.5033128412223112</v>
+        <v>0.823977068011012</v>
       </c>
     </row>
   </sheetData>
